--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Jana Ahmed Mohamed Naguib</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جورج ممدوح محروس رزق مرقس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GOURG</x:t>
   </x:si>
   <x:si>
     <x:t>1240221</x:t>
@@ -518,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -818,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1101,7 +1092,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4156690625</x:v>
+        <x:v>45914.9711632292</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1133,7 +1124,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.9711632292</x:v>
+        <x:v>45906.6690175926</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1165,7 +1156,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6690175926</x:v>
+        <x:v>45909.4516007292</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4516007292</x:v>
+        <x:v>45906.8741959838</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.8741959838</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45914.9660176736</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.9660176736</x:v>
+        <x:v>45914.9878357639</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1325,7 +1316,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9878357639</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1357,7 +1348,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45914.9758873495</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1389,7 +1380,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9758873495</x:v>
+        <x:v>45907.6647845718</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1421,7 +1412,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6647845718</x:v>
+        <x:v>45914.9793430903</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1453,7 +1444,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9793430903</x:v>
+        <x:v>45907.67773125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1485,7 +1476,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.67773125</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1517,7 +1508,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1549,7 +1540,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45914.9740434838</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1581,7 +1572,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.9740434838</x:v>
+        <x:v>45914.970894294</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1613,7 +1604,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.970894294</x:v>
+        <x:v>45907.4154953356</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1641,11 +1632,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.4154953356</x:v>
+        <x:v>45909.5035721875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1668,14 +1657,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45909.5035721875</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1771,7 +1762,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45914.9905667014</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.9905667014</x:v>
+        <x:v>45914.9874521991</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1899,7 +1890,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9874521991</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1931,7 +1922,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1963,7 +1954,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45906.6709200579</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1995,7 +1986,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6709200579</x:v>
+        <x:v>45914.9800971875</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2027,7 +2018,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9800971875</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2059,7 +2050,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2091,7 +2082,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2123,7 +2114,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6650192477</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2155,7 +2146,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6650192477</x:v>
+        <x:v>45906.8752790162</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2183,11 +2174,9 @@
       <x:c r="C42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
+      <x:c r="D42" s="2" t="s"/>
       <x:c r="E42" s="3">
-        <x:v>45906.8752790162</x:v>
+        <x:v>45909.6314574074</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2204,36 +2193,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s"/>
-      <x:c r="E43" s="3">
-        <x:v>45909.6314574074</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>obai ahmed mohmed abdelmawgood</x:t>
   </x:si>
   <x:si>
+    <x:t>1240004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد حمدي احمد ابراهيم على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hamdy Ahmed Ibrahim Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240009</x:t>
   </x:si>
   <x:si>
@@ -202,24 +211,6 @@
   </x:si>
   <x:si>
     <x:t>Abderahman Mahmoud Abdelrahman  Mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240091</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على احمد محمد محمود محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Ahmed Mohamed Mahmoud Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على تامر عبدالكريم منسى عبدالغفار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aly Tamer AbdelKareem Mansy Abdelghaffar</x:t>
   </x:si>
   <x:si>
     <x:t>1240095</x:t>
@@ -509,7 +500,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +800,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -932,7 +923,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.7001651273</x:v>
+        <x:v>45921.5714209838</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -964,7 +955,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.9898122685</x:v>
+        <x:v>45907.7001651273</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -996,7 +987,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6651128125</x:v>
+        <x:v>45914.9898122685</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1028,7 +1019,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.9716463773</x:v>
+        <x:v>45907.6651128125</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1060,7 +1051,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4148358796</x:v>
+        <x:v>45914.9716463773</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1092,7 +1083,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.9711632292</x:v>
+        <x:v>45907.4148358796</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6690175926</x:v>
+        <x:v>45914.9711632292</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4516007292</x:v>
+        <x:v>45906.6690175926</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.8741959838</x:v>
+        <x:v>45909.4516007292</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45906.8741959838</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.9660176736</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1284,7 +1275,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.9878357639</x:v>
+        <x:v>45914.9660176736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1316,7 +1307,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45914.9878357639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1348,7 +1339,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9758873495</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1380,7 +1371,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6647845718</x:v>
+        <x:v>45914.9758873495</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1412,7 +1403,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.9793430903</x:v>
+        <x:v>45907.6647845718</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1444,7 +1435,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.67773125</x:v>
+        <x:v>45914.9793430903</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1476,7 +1467,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.67773125</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1508,7 +1499,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1540,7 +1531,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.9740434838</x:v>
+        <x:v>45914.970894294</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1572,7 +1563,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.970894294</x:v>
+        <x:v>45907.4154953356</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1600,11 +1591,9 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.4154953356</x:v>
+        <x:v>45909.5035721875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1627,14 +1616,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45909.5035721875</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1730,7 +1721,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1762,7 +1753,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45914.9905667014</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.9905667014</x:v>
+        <x:v>45914.9874521991</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1858,7 +1849,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.9874521991</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1890,7 +1881,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1922,7 +1913,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45906.6709200579</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1954,7 +1945,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6709200579</x:v>
+        <x:v>45914.9800971875</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1986,7 +1977,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.9800971875</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2018,7 +2009,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2050,7 +2041,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2082,7 +2073,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6650192477</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2114,7 +2105,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6650192477</x:v>
+        <x:v>45906.8752790162</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2142,11 +2133,9 @@
       <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
+      <x:c r="D41" s="2" t="s"/>
       <x:c r="E41" s="3">
-        <x:v>45906.8752790162</x:v>
+        <x:v>45909.6314574074</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2163,36 +2152,6 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s"/>
-      <x:c r="E42" s="3">
-        <x:v>45909.6314574074</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -385,6 +385,15 @@
   </x:si>
   <x:si>
     <x:t>يوسف محمد بدر الدين حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد وليد احمد محمد مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Walid Ahmed Mohamed Mabruk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -500,7 +509,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -800,7 +809,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2152,6 +2161,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45921.7535858796</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1220027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم علاء الدين على المنسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim alaa eldin ali elmansy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240001</x:t>
   </x:si>
   <x:si>
@@ -150,6 +159,15 @@
     <x:t>Syed Mumtaz Hussain Bokhari</x:t>
   </x:si>
   <x:si>
+    <x:t>4230151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>طلعت مصطفى فريز حسان نقريش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Talaat Mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220248</x:t>
   </x:si>
   <x:si>
@@ -168,15 +186,6 @@
     <x:t>Abdulrahman Ahmed Mahmoud Ali Salama</x:t>
   </x:si>
   <x:si>
-    <x:t>1240230</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220249</x:t>
   </x:si>
   <x:si>
@@ -262,6 +271,15 @@
   </x:si>
   <x:si>
     <x:t>Loai Atef Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مارينا ريمون سمير زكريا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARINA REMON SAMIR ZAKARIA</x:t>
   </x:si>
   <x:si>
     <x:t>1240353</x:t>
@@ -509,7 +527,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -809,7 +827,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -900,7 +918,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45909.4188159375</x:v>
+        <x:v>45922.5230103357</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -932,7 +950,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45921.5714209838</x:v>
+        <x:v>45909.4188159375</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -964,7 +982,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.7001651273</x:v>
+        <x:v>45921.5714209838</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -996,7 +1014,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.9898122685</x:v>
+        <x:v>45907.7001651273</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1028,7 +1046,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6651128125</x:v>
+        <x:v>45914.9898122685</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1060,7 +1078,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.9716463773</x:v>
+        <x:v>45907.6651128125</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1092,7 +1110,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4148358796</x:v>
+        <x:v>45914.9716463773</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1124,7 +1142,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.9711632292</x:v>
+        <x:v>45907.4148358796</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1156,7 +1174,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6690175926</x:v>
+        <x:v>45914.9711632292</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1188,7 +1206,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4516007292</x:v>
+        <x:v>45906.6690175926</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1220,7 +1238,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.8741959838</x:v>
+        <x:v>45909.4516007292</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1252,7 +1270,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45906.8741959838</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1284,7 +1302,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.9660176736</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1316,7 +1334,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9878357639</x:v>
+        <x:v>45914.9660176736</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1348,7 +1366,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45922.5246989583</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1380,7 +1398,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9758873495</x:v>
+        <x:v>45914.9878357639</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1412,7 +1430,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6647845718</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1444,7 +1462,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9793430903</x:v>
+        <x:v>45907.6647845718</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1476,7 +1494,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.67773125</x:v>
+        <x:v>45914.9793430903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1508,7 +1526,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.67773125</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1540,7 +1558,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.970894294</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1572,7 +1590,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4154953356</x:v>
+        <x:v>45914.970894294</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1600,9 +1618,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.5035721875</x:v>
+        <x:v>45907.4154953356</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1625,16 +1645,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45909.5035721875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1666,7 +1684,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1698,7 +1716,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1730,7 +1748,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1762,7 +1780,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45922.5221412384</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1794,7 +1812,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.9905667014</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1826,7 +1844,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.9874521991</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1858,7 +1876,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45914.9905667014</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1890,7 +1908,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45914.9874521991</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1922,7 +1940,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6709200579</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1954,7 +1972,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9800971875</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1986,7 +2004,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45906.6709200579</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2018,7 +2036,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45914.9800971875</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2050,7 +2068,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2082,7 +2100,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6650192477</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2114,7 +2132,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.8752790162</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2142,9 +2160,11 @@
       <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s"/>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.6314574074</x:v>
+        <x:v>45907.6650192477</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2167,16 +2187,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45921.7535858796</x:v>
+        <x:v>45906.8752790162</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2193,6 +2213,68 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s"/>
+      <x:c r="E43" s="3">
+        <x:v>45909.6314574074</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45921.7535858796</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -244,6 +244,15 @@
   </x:si>
   <x:si>
     <x:t>عمرو هاشم سعيد عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فريدة وائل عبد الحكيم السيد فريد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farida Wael Abdel Hakim El Dorghamy</x:t>
   </x:si>
   <x:si>
     <x:t>1240347</x:t>
@@ -527,7 +536,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -827,7 +836,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1684,7 +1693,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45924.4165710648</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.5221412384</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45922.5221412384</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.9905667014</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9874521991</x:v>
+        <x:v>45914.9905667014</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45914.9874521991</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1972,7 +1981,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2004,7 +2013,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6709200579</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2036,7 +2045,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9800971875</x:v>
+        <x:v>45906.6709200579</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2068,7 +2077,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45914.9800971875</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2100,7 +2109,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2132,7 +2141,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2164,7 +2173,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6650192477</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2196,7 +2205,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.8752790162</x:v>
+        <x:v>45907.6650192477</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2224,9 +2233,11 @@
       <x:c r="C43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s"/>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.6314574074</x:v>
+        <x:v>45906.8752790162</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2249,16 +2260,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
         <x:v>131</x:v>
       </x:c>
+      <x:c r="D44" s="2" t="s"/>
       <x:c r="E44" s="3">
-        <x:v>45921.7535858796</x:v>
+        <x:v>45909.6314574074</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2275,6 +2284,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45921.7535858796</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Wael fawzi saad bakr aboelez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد وليد محمد نبيه فرج حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Waleed Mohamed Nabih</x:t>
   </x:si>
   <x:si>
     <x:t>2230016</x:t>
@@ -536,7 +527,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -836,7 +827,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1087,7 +1078,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651128125</x:v>
+        <x:v>45914.9716463773</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1119,7 +1110,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.9716463773</x:v>
+        <x:v>45907.4148358796</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1151,7 +1142,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4148358796</x:v>
+        <x:v>45914.9711632292</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1183,7 +1174,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.9711632292</x:v>
+        <x:v>45906.6690175926</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1215,7 +1206,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6690175926</x:v>
+        <x:v>45909.4516007292</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1247,7 +1238,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4516007292</x:v>
+        <x:v>45906.8741959838</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1279,7 +1270,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.8741959838</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1311,7 +1302,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45914.9660176736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1343,7 +1334,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9660176736</x:v>
+        <x:v>45922.5246989583</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1375,7 +1366,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45922.5246989583</x:v>
+        <x:v>45914.9878357639</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1407,7 +1398,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.9878357639</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1439,7 +1430,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6647845718</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1471,7 +1462,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6647845718</x:v>
+        <x:v>45914.9793430903</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1503,7 +1494,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.9793430903</x:v>
+        <x:v>45907.67773125</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1535,7 +1526,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.67773125</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1567,7 +1558,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45914.970894294</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1599,7 +1590,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.970894294</x:v>
+        <x:v>45907.4154953356</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1627,11 +1618,9 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.4154953356</x:v>
+        <x:v>45909.5035721875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1654,14 +1643,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45909.5035721875</x:v>
+        <x:v>45924.4165710648</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45924.4165710648</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45922.5221412384</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.5221412384</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45914.9905667014</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9905667014</x:v>
+        <x:v>45914.9874521991</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.9874521991</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1981,7 +1972,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2013,7 +2004,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45906.6709200579</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2045,7 +2036,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6709200579</x:v>
+        <x:v>45914.9800971875</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2077,7 +2068,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.9800971875</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2109,7 +2100,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2141,7 +2132,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2173,7 +2164,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6650192477</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2205,7 +2196,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6650192477</x:v>
+        <x:v>45906.8752790162</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2233,11 +2224,9 @@
       <x:c r="C43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
+      <x:c r="D43" s="2" t="s"/>
       <x:c r="E43" s="3">
-        <x:v>45906.8752790162</x:v>
+        <x:v>45909.6314574074</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2260,14 +2249,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="s">
+      <x:c r="D44" s="2" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="D44" s="2" t="s"/>
       <x:c r="E44" s="3">
-        <x:v>45909.6314574074</x:v>
+        <x:v>45921.7535858796</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2284,38 +2275,6 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45921.7535858796</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>obai ahmed mohmed abdelmawgood</x:t>
   </x:si>
   <x:si>
-    <x:t>1240004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد حمدي احمد ابراهيم على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Hamdy Ahmed Ibrahim Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240009</x:t>
   </x:si>
   <x:si>
@@ -69,6 +60,15 @@
     <x:t>ِAhmed Taha  Ahmed Taha Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>4240004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عبدالمحسن عبدالمقصود عبدالجواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed abdelmohsen</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240019</x:t>
   </x:si>
   <x:si>
@@ -186,15 +186,6 @@
     <x:t>Abdelraman Yasser Mohamed Abdel/All Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد عبدالباسط احمد عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240233</x:t>
   </x:si>
   <x:si>
@@ -213,6 +204,15 @@
     <x:t>Abderahman Mahmoud Abdelrahman  Mahmoud</x:t>
   </x:si>
   <x:si>
+    <x:t>4240029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على كريم محمود عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ali kareem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240095</x:t>
   </x:si>
   <x:si>
@@ -237,6 +237,15 @@
     <x:t>عمرو هاشم سعيد عبداللطيف</x:t>
   </x:si>
   <x:si>
+    <x:t>1230224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فريد رامز حسني غزال</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farid Ramez Hosny Ghazal</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220189</x:t>
   </x:si>
   <x:si>
@@ -370,6 +379,15 @@
   </x:si>
   <x:si>
     <x:t>Noor Mohamed Talaat Mohamed Dawoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور منتصر مجدى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nour montasser magdy mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240161</x:t>
@@ -527,7 +545,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -827,7 +845,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -835,8 +853,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.650625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="47.240625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="33.310625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.180625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -982,7 +1000,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45921.5714209838</x:v>
+        <x:v>45907.7001651273</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1014,7 +1032,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.7001651273</x:v>
+        <x:v>45927.6061607639</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1462,7 +1480,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.9793430903</x:v>
+        <x:v>45907.67773125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1494,7 +1512,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.67773125</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1526,7 +1544,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45927.4144523148</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1652,7 +1670,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45924.4165710648</x:v>
+        <x:v>45927.4405496528</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1684,7 +1702,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45924.4165710648</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1716,7 +1734,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1748,7 +1766,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1780,7 +1798,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.5221412384</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1812,7 +1830,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45922.5221412384</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1844,7 +1862,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1876,7 +1894,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.9905667014</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1908,7 +1926,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9874521991</x:v>
+        <x:v>45914.9905667014</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1940,7 +1958,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45914.9874521991</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1972,7 +1990,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2004,7 +2022,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6709200579</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2036,7 +2054,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9800971875</x:v>
+        <x:v>45906.6709200579</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2068,7 +2086,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45914.9800971875</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2100,7 +2118,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2132,7 +2150,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2164,7 +2182,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6650192477</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2196,7 +2214,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.8752790162</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2224,9 +2242,11 @@
       <x:c r="C43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D43" s="2" t="s"/>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.6314574074</x:v>
+        <x:v>45907.6650192477</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2249,16 +2269,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45921.7535858796</x:v>
+        <x:v>45906.8752790162</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2275,6 +2295,68 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s"/>
+      <x:c r="E45" s="3">
+        <x:v>45909.6314574074</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45921.7535858796</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -114,15 +114,6 @@
     <x:t>Hanin Mohamed Ismail Mohamed Hamada</x:t>
   </x:si>
   <x:si>
-    <x:t>1240058</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رغد احمد مصطفى محمد الموافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Raghad Ahmed Mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220052</x:t>
   </x:si>
   <x:si>
@@ -220,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Ali mahmoud reda Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
   </x:si>
   <x:si>
     <x:t>1220310</x:t>
@@ -1224,7 +1224,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4516007292</x:v>
+        <x:v>45906.8741959838</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1256,7 +1256,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.8741959838</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1288,7 +1288,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45914.9660176736</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1320,7 +1320,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.9660176736</x:v>
+        <x:v>45922.5246989583</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1352,7 +1352,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45922.5246989583</x:v>
+        <x:v>45914.9878357639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1384,7 +1384,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9878357639</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1416,7 +1416,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6647845718</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1448,7 +1448,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6647845718</x:v>
+        <x:v>45907.67773125</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1480,7 +1480,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.67773125</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1512,7 +1512,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45927.4144523148</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1544,7 +1544,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4144523148</x:v>
+        <x:v>45914.970894294</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1576,7 +1576,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.970894294</x:v>
+        <x:v>45928.2778882755</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -78,6 +78,15 @@
     <x:t>Ahmed Wael fawzi saad bakr aboelez</x:t>
   </x:si>
   <x:si>
+    <x:t>4240006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسراء محمد ابراهيم حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esraa Mohamed Ibrahim Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>2230016</x:t>
   </x:si>
   <x:si>
@@ -237,15 +246,6 @@
     <x:t>عمرو هاشم سعيد عبداللطيف</x:t>
   </x:si>
   <x:si>
-    <x:t>1230224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فريد رامز حسني غزال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farid Ramez Hosny Ghazal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220189</x:t>
   </x:si>
   <x:si>
@@ -408,6 +408,15 @@
     <x:t>Hana Mahmoud Saber Hamdah Mohamed Badawy</x:t>
   </x:si>
   <x:si>
+    <x:t>1230329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220090</x:t>
   </x:si>
   <x:si>
@@ -421,15 +430,6 @@
   </x:si>
   <x:si>
     <x:t>يوسف محمد بدر الدين حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد وليد احمد محمد مبروك</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Walid Ahmed Mohamed Mabruk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1064,7 +1064,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.9898122685</x:v>
+        <x:v>45928.9640058218</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1096,7 +1096,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.9716463773</x:v>
+        <x:v>45929.0314946412</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1128,7 +1128,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4148358796</x:v>
+        <x:v>45914.9716463773</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1160,7 +1160,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.9711632292</x:v>
+        <x:v>45907.4148358796</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1192,7 +1192,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6690175926</x:v>
+        <x:v>45914.9711632292</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1224,7 +1224,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.8741959838</x:v>
+        <x:v>45906.6690175926</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1256,7 +1256,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45906.8741959838</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1288,7 +1288,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.9660176736</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1320,7 +1320,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45922.5246989583</x:v>
+        <x:v>45914.9660176736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1352,7 +1352,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9878357639</x:v>
+        <x:v>45922.5246989583</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1384,7 +1384,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45914.9878357639</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1416,7 +1416,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6647845718</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1448,7 +1448,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.67773125</x:v>
+        <x:v>45907.6647845718</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1480,7 +1480,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.67773125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1512,7 +1512,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4144523148</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1544,7 +1544,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.970894294</x:v>
+        <x:v>45927.4144523148</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1576,7 +1576,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45928.2778882755</x:v>
+        <x:v>45914.970894294</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1608,7 +1608,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4154953356</x:v>
+        <x:v>45928.2778882755</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1636,9 +1636,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.5035721875</x:v>
+        <x:v>45907.4154953356</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1661,16 +1663,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45927.4405496528</x:v>
+        <x:v>45909.5035721875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -2278,7 +2278,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.8752790162</x:v>
+        <x:v>45929.1902949074</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2306,9 +2306,11 @@
       <x:c r="C45" s="2" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D45" s="2" t="s"/>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.6314574074</x:v>
+        <x:v>45906.8752790162</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2331,16 +2333,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
         <x:v>137</x:v>
       </x:c>
+      <x:c r="D46" s="2" t="s"/>
       <x:c r="E46" s="3">
-        <x:v>45921.7535858796</x:v>
+        <x:v>45909.6314574074</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -1128,7 +1128,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.9716463773</x:v>
+        <x:v>45929.5674331829</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -2363,11 +2363,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [20104]20104-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [20103]20103-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [20104]20104-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [20103]20103-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [20104]20104-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture  Fundamentals of Management, Risk and  Environment (GENS110) Location : [20103]20103-60-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Esraa Mohamed Ibrahim Hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2230016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جمانة جمال شريف فاضل</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
   </x:si>
   <x:si>
     <x:t>1230171</x:t>
@@ -545,7 +536,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -845,7 +836,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1128,7 +1119,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45929.5674331829</x:v>
+        <x:v>45907.4148358796</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4148358796</x:v>
+        <x:v>45914.9711632292</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.9711632292</x:v>
+        <x:v>45906.6690175926</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6690175926</x:v>
+        <x:v>45906.8741959838</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.8741959838</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45914.9660176736</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1320,7 +1311,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.9660176736</x:v>
+        <x:v>45922.5246989583</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1352,7 +1343,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45922.5246989583</x:v>
+        <x:v>45914.9878357639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.9878357639</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6647845718</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1448,7 +1439,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6647845718</x:v>
+        <x:v>45907.67773125</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1480,7 +1471,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.67773125</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1512,7 +1503,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45927.4144523148</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1544,7 +1535,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4144523148</x:v>
+        <x:v>45914.970894294</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1576,7 +1567,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.970894294</x:v>
+        <x:v>45928.2778882755</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1608,7 +1599,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45928.2778882755</x:v>
+        <x:v>45907.4154953356</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1636,11 +1627,9 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.4154953356</x:v>
+        <x:v>45909.5035721875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1663,14 +1652,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45909.5035721875</x:v>
+        <x:v>45924.4165710648</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45924.4165710648</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45922.5221412384</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45922.5221412384</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45914.9905667014</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9905667014</x:v>
+        <x:v>45914.9874521991</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.9874521991</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2022,7 +2013,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45906.6709200579</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2054,7 +2045,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6709200579</x:v>
+        <x:v>45914.9800971875</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2086,7 +2077,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.9800971875</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2118,7 +2109,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2150,7 +2141,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2182,7 +2173,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2214,7 +2205,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6650192477</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2246,7 +2237,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6650192477</x:v>
+        <x:v>45929.1902949074</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2278,7 +2269,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45929.1902949074</x:v>
+        <x:v>45906.8752790162</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2306,11 +2297,9 @@
       <x:c r="C45" s="2" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
+      <x:c r="D45" s="2" t="s"/>
       <x:c r="E45" s="3">
-        <x:v>45906.8752790162</x:v>
+        <x:v>45909.6314574074</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2327,36 +2316,6 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s"/>
-      <x:c r="E46" s="3">
-        <x:v>45909.6314574074</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Ahmed Mohamed Naguib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسن محى حسن عبدالمجيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hassan Mohy Hassan Abdelmegeed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1240221</x:t>
@@ -536,7 +545,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -836,7 +845,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1151,7 +1160,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.9711632292</x:v>
+        <x:v>45933.5884131134</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6690175926</x:v>
+        <x:v>45914.9711632292</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.8741959838</x:v>
+        <x:v>45906.6690175926</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646685995</x:v>
+        <x:v>45906.8741959838</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.9660176736</x:v>
+        <x:v>45907.6646685995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45922.5246989583</x:v>
+        <x:v>45914.9660176736</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.9878357639</x:v>
+        <x:v>45922.5246989583</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45914.9878357639</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6647845718</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1439,7 +1448,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.67773125</x:v>
+        <x:v>45907.6647845718</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1471,7 +1480,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.67773125</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1503,7 +1512,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4144523148</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1535,7 +1544,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.970894294</x:v>
+        <x:v>45927.4144523148</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1567,7 +1576,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45928.2778882755</x:v>
+        <x:v>45914.970894294</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1599,7 +1608,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4154953356</x:v>
+        <x:v>45928.2778882755</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1627,9 +1636,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.5035721875</x:v>
+        <x:v>45907.4154953356</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1652,16 +1663,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45924.4165710648</x:v>
+        <x:v>45909.5035721875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45924.4165710648</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652359144</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.5221412384</x:v>
+        <x:v>45907.6652359144</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45922.5221412384</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.9905667014</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.9874521991</x:v>
+        <x:v>45914.9905667014</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648720718</x:v>
+        <x:v>45914.9874521991</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.5021883102</x:v>
+        <x:v>45907.6648720718</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2013,7 +2022,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6709200579</x:v>
+        <x:v>45907.5021883102</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2045,7 +2054,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.9800971875</x:v>
+        <x:v>45906.6709200579</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2077,7 +2086,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45914.9800971875</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2109,7 +2118,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.664794213</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2141,7 +2150,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45927.4155992245</x:v>
+        <x:v>45907.664794213</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2173,7 +2182,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45927.4155992245</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2205,7 +2214,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6650192477</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2237,7 +2246,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45929.1902949074</x:v>
+        <x:v>45907.6650192477</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2269,7 +2278,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.8752790162</x:v>
+        <x:v>45929.1902949074</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2297,9 +2306,11 @@
       <x:c r="C45" s="2" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D45" s="2" t="s"/>
+      <x:c r="D45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.6314574074</x:v>
+        <x:v>45906.8752790162</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2316,6 +2327,36 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s"/>
+      <x:c r="E46" s="3">
+        <x:v>45909.6314574074</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS110_Lecture-35031.xlsx
+++ b/downloaded_files/GENS110_Lecture-35031.xlsx
@@ -369,7 +369,7 @@
     <x:t>مينا وجيه خليل شاكر اسحاق عبد المسيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmaish</x:t>
+    <x:t>Mina Wageh Khalil Shaker Eshak Abdelmasih</x:t>
   </x:si>
   <x:si>
     <x:t>1240385</x:t>
@@ -396,7 +396,7 @@
     <x:t>هنا ايمن عبداللطيف عبدالحميد احمد سلام</x:t>
   </x:si>
   <x:si>
-    <x:t>Hana Ayman Abdellatif</x:t>
+    <x:t>Hana Ayman Abdellatif Abdelhamed Ahmed Sallam</x:t>
   </x:si>
   <x:si>
     <x:t>1230277</x:t>
